--- a/전력수요예측.xlsx
+++ b/전력수요예측.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\SMP 관련 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\전력거래\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F348B-6294-475C-AF7A-581866585627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{388B1C3F-5FF2-4D81-A312-179DCBCC5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6206D1E-F362-4FB5-9A92-101486E0B7D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAA77A6B-6363-40F8-8F3F-6F88E3E928FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="전력수요예측" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>구분</t>
+  </si>
   <si>
     <t>1h</t>
   </si>
@@ -109,16 +96,12 @@
   <si>
     <t>24h</t>
   </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +111,144 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -151,8 +271,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,17 +288,297 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -190,8 +597,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -199,17 +729,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,11 +1112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A5FEF2-EE2E-4887-8062-E7ACA5DDC0B7}">
-  <dimension ref="A1:Y144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DFF2D8-9DF2-4BB1-BDDF-07E8C3DCA054}">
+  <dimension ref="A1:Y161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection sqref="A1:Y161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -554,84 +1125,84 @@
     <col min="2" max="25" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>20240101</v>
       </c>
@@ -11642,8 +12213,1317 @@
         <v>57599</v>
       </c>
     </row>
+    <row r="145" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="2">
+        <v>20240523</v>
+      </c>
+      <c r="B145" s="3">
+        <v>54055</v>
+      </c>
+      <c r="C145" s="3">
+        <v>52077</v>
+      </c>
+      <c r="D145" s="3">
+        <v>51011</v>
+      </c>
+      <c r="E145" s="3">
+        <v>50476</v>
+      </c>
+      <c r="F145" s="3">
+        <v>50613</v>
+      </c>
+      <c r="G145" s="3">
+        <v>51347</v>
+      </c>
+      <c r="H145" s="3">
+        <v>53117</v>
+      </c>
+      <c r="I145" s="3">
+        <v>54743</v>
+      </c>
+      <c r="J145" s="3">
+        <v>57512</v>
+      </c>
+      <c r="K145" s="3">
+        <v>57863</v>
+      </c>
+      <c r="L145" s="3">
+        <v>57598</v>
+      </c>
+      <c r="M145" s="3">
+        <v>55992</v>
+      </c>
+      <c r="N145" s="3">
+        <v>53504</v>
+      </c>
+      <c r="O145" s="3">
+        <v>56420</v>
+      </c>
+      <c r="P145" s="3">
+        <v>58550</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>60756</v>
+      </c>
+      <c r="R145" s="3">
+        <v>63671</v>
+      </c>
+      <c r="S145" s="3">
+        <v>64989</v>
+      </c>
+      <c r="T145" s="3">
+        <v>65464</v>
+      </c>
+      <c r="U145" s="3">
+        <v>65887</v>
+      </c>
+      <c r="V145" s="3">
+        <v>64838</v>
+      </c>
+      <c r="W145" s="3">
+        <v>62635</v>
+      </c>
+      <c r="X145" s="3">
+        <v>60051</v>
+      </c>
+      <c r="Y145" s="3">
+        <v>58137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
+        <v>20240524</v>
+      </c>
+      <c r="B146" s="3">
+        <v>53688</v>
+      </c>
+      <c r="C146" s="3">
+        <v>51654</v>
+      </c>
+      <c r="D146" s="3">
+        <v>50537</v>
+      </c>
+      <c r="E146" s="3">
+        <v>49978</v>
+      </c>
+      <c r="F146" s="3">
+        <v>50098</v>
+      </c>
+      <c r="G146" s="3">
+        <v>50841</v>
+      </c>
+      <c r="H146" s="3">
+        <v>52734</v>
+      </c>
+      <c r="I146" s="3">
+        <v>54776</v>
+      </c>
+      <c r="J146" s="3">
+        <v>57871</v>
+      </c>
+      <c r="K146" s="3">
+        <v>58605</v>
+      </c>
+      <c r="L146" s="3">
+        <v>58754</v>
+      </c>
+      <c r="M146" s="3">
+        <v>57776</v>
+      </c>
+      <c r="N146" s="3">
+        <v>55891</v>
+      </c>
+      <c r="O146" s="3">
+        <v>58957</v>
+      </c>
+      <c r="P146" s="3">
+        <v>60821</v>
+      </c>
+      <c r="Q146" s="3">
+        <v>62270</v>
+      </c>
+      <c r="R146" s="3">
+        <v>64045</v>
+      </c>
+      <c r="S146" s="3">
+        <v>64159</v>
+      </c>
+      <c r="T146" s="3">
+        <v>63943</v>
+      </c>
+      <c r="U146" s="3">
+        <v>64095</v>
+      </c>
+      <c r="V146" s="3">
+        <v>63206</v>
+      </c>
+      <c r="W146" s="3">
+        <v>61194</v>
+      </c>
+      <c r="X146" s="3">
+        <v>58789</v>
+      </c>
+      <c r="Y146" s="3">
+        <v>57267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
+        <v>20240525</v>
+      </c>
+      <c r="B147" s="3">
+        <v>53640</v>
+      </c>
+      <c r="C147" s="3">
+        <v>51365</v>
+      </c>
+      <c r="D147" s="3">
+        <v>50030</v>
+      </c>
+      <c r="E147" s="3">
+        <v>49260</v>
+      </c>
+      <c r="F147" s="3">
+        <v>49067</v>
+      </c>
+      <c r="G147" s="3">
+        <v>49184</v>
+      </c>
+      <c r="H147" s="3">
+        <v>49729</v>
+      </c>
+      <c r="I147" s="3">
+        <v>49710</v>
+      </c>
+      <c r="J147" s="3">
+        <v>50301</v>
+      </c>
+      <c r="K147" s="3">
+        <v>50040</v>
+      </c>
+      <c r="L147" s="3">
+        <v>50236</v>
+      </c>
+      <c r="M147" s="3">
+        <v>49262</v>
+      </c>
+      <c r="N147" s="3">
+        <v>47673</v>
+      </c>
+      <c r="O147" s="3">
+        <v>48386</v>
+      </c>
+      <c r="P147" s="3">
+        <v>49122</v>
+      </c>
+      <c r="Q147" s="3">
+        <v>50278</v>
+      </c>
+      <c r="R147" s="3">
+        <v>51876</v>
+      </c>
+      <c r="S147" s="3">
+        <v>53386</v>
+      </c>
+      <c r="T147" s="3">
+        <v>55219</v>
+      </c>
+      <c r="U147" s="3">
+        <v>56473</v>
+      </c>
+      <c r="V147" s="3">
+        <v>56653</v>
+      </c>
+      <c r="W147" s="3">
+        <v>55349</v>
+      </c>
+      <c r="X147" s="3">
+        <v>53704</v>
+      </c>
+      <c r="Y147" s="3">
+        <v>52487</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
+        <v>20240526</v>
+      </c>
+      <c r="B148" s="3">
+        <v>49573</v>
+      </c>
+      <c r="C148" s="3">
+        <v>47634</v>
+      </c>
+      <c r="D148" s="3">
+        <v>46388</v>
+      </c>
+      <c r="E148" s="3">
+        <v>45705</v>
+      </c>
+      <c r="F148" s="3">
+        <v>45477</v>
+      </c>
+      <c r="G148" s="3">
+        <v>45688</v>
+      </c>
+      <c r="H148" s="3">
+        <v>46331</v>
+      </c>
+      <c r="I148" s="3">
+        <v>45637</v>
+      </c>
+      <c r="J148" s="3">
+        <v>44436</v>
+      </c>
+      <c r="K148" s="3">
+        <v>42637</v>
+      </c>
+      <c r="L148" s="3">
+        <v>42518</v>
+      </c>
+      <c r="M148" s="3">
+        <v>42981</v>
+      </c>
+      <c r="N148" s="3">
+        <v>43980</v>
+      </c>
+      <c r="O148" s="3">
+        <v>46095</v>
+      </c>
+      <c r="P148" s="3">
+        <v>48881</v>
+      </c>
+      <c r="Q148" s="3">
+        <v>51869</v>
+      </c>
+      <c r="R148" s="3">
+        <v>53394</v>
+      </c>
+      <c r="S148" s="3">
+        <v>54411</v>
+      </c>
+      <c r="T148" s="3">
+        <v>55085</v>
+      </c>
+      <c r="U148" s="3">
+        <v>55897</v>
+      </c>
+      <c r="V148" s="3">
+        <v>55947</v>
+      </c>
+      <c r="W148" s="3">
+        <v>54478</v>
+      </c>
+      <c r="X148" s="3">
+        <v>53087</v>
+      </c>
+      <c r="Y148" s="3">
+        <v>51024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="2">
+        <v>20240527</v>
+      </c>
+      <c r="B149" s="3">
+        <v>47853</v>
+      </c>
+      <c r="C149" s="3">
+        <v>46148</v>
+      </c>
+      <c r="D149" s="3">
+        <v>45268</v>
+      </c>
+      <c r="E149" s="3">
+        <v>44917</v>
+      </c>
+      <c r="F149" s="3">
+        <v>45163</v>
+      </c>
+      <c r="G149" s="3">
+        <v>46299</v>
+      </c>
+      <c r="H149" s="3">
+        <v>48954</v>
+      </c>
+      <c r="I149" s="3">
+        <v>52872</v>
+      </c>
+      <c r="J149" s="3">
+        <v>56734</v>
+      </c>
+      <c r="K149" s="3">
+        <v>57774</v>
+      </c>
+      <c r="L149" s="3">
+        <v>57357</v>
+      </c>
+      <c r="M149" s="3">
+        <v>56154</v>
+      </c>
+      <c r="N149" s="3">
+        <v>54127</v>
+      </c>
+      <c r="O149" s="3">
+        <v>56618</v>
+      </c>
+      <c r="P149" s="3">
+        <v>58346</v>
+      </c>
+      <c r="Q149" s="3">
+        <v>59827</v>
+      </c>
+      <c r="R149" s="3">
+        <v>62134</v>
+      </c>
+      <c r="S149" s="3">
+        <v>63302</v>
+      </c>
+      <c r="T149" s="3">
+        <v>64802</v>
+      </c>
+      <c r="U149" s="3">
+        <v>65494</v>
+      </c>
+      <c r="V149" s="3">
+        <v>63470</v>
+      </c>
+      <c r="W149" s="3">
+        <v>61033</v>
+      </c>
+      <c r="X149" s="3">
+        <v>59619</v>
+      </c>
+      <c r="Y149" s="3">
+        <v>57269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
+        <v>20240528</v>
+      </c>
+      <c r="B150" s="3">
+        <v>53453</v>
+      </c>
+      <c r="C150" s="3">
+        <v>51629</v>
+      </c>
+      <c r="D150" s="3">
+        <v>50603</v>
+      </c>
+      <c r="E150" s="3">
+        <v>49987</v>
+      </c>
+      <c r="F150" s="3">
+        <v>50075</v>
+      </c>
+      <c r="G150" s="3">
+        <v>50954</v>
+      </c>
+      <c r="H150" s="3">
+        <v>53083</v>
+      </c>
+      <c r="I150" s="3">
+        <v>55646</v>
+      </c>
+      <c r="J150" s="3">
+        <v>58462</v>
+      </c>
+      <c r="K150" s="3">
+        <v>58775</v>
+      </c>
+      <c r="L150" s="3">
+        <v>57573</v>
+      </c>
+      <c r="M150" s="3">
+        <v>54962</v>
+      </c>
+      <c r="N150" s="3">
+        <v>52041</v>
+      </c>
+      <c r="O150" s="3">
+        <v>55112</v>
+      </c>
+      <c r="P150" s="3">
+        <v>56998</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>59054</v>
+      </c>
+      <c r="R150" s="3">
+        <v>61613</v>
+      </c>
+      <c r="S150" s="3">
+        <v>63103</v>
+      </c>
+      <c r="T150" s="3">
+        <v>64602</v>
+      </c>
+      <c r="U150" s="3">
+        <v>65137</v>
+      </c>
+      <c r="V150" s="3">
+        <v>63667</v>
+      </c>
+      <c r="W150" s="3">
+        <v>61098</v>
+      </c>
+      <c r="X150" s="3">
+        <v>59432</v>
+      </c>
+      <c r="Y150" s="3">
+        <v>57319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="2">
+        <v>20240529</v>
+      </c>
+      <c r="B151" s="3">
+        <v>53397</v>
+      </c>
+      <c r="C151" s="3">
+        <v>51455</v>
+      </c>
+      <c r="D151" s="3">
+        <v>50481</v>
+      </c>
+      <c r="E151" s="3">
+        <v>49947</v>
+      </c>
+      <c r="F151" s="3">
+        <v>50079</v>
+      </c>
+      <c r="G151" s="3">
+        <v>50772</v>
+      </c>
+      <c r="H151" s="3">
+        <v>52317</v>
+      </c>
+      <c r="I151" s="3">
+        <v>53512</v>
+      </c>
+      <c r="J151" s="3">
+        <v>56062</v>
+      </c>
+      <c r="K151" s="3">
+        <v>56522</v>
+      </c>
+      <c r="L151" s="3">
+        <v>56564</v>
+      </c>
+      <c r="M151" s="3">
+        <v>55476</v>
+      </c>
+      <c r="N151" s="3">
+        <v>53295</v>
+      </c>
+      <c r="O151" s="3">
+        <v>56388</v>
+      </c>
+      <c r="P151" s="3">
+        <v>58557</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>60645</v>
+      </c>
+      <c r="R151" s="3">
+        <v>63275</v>
+      </c>
+      <c r="S151" s="3">
+        <v>64134</v>
+      </c>
+      <c r="T151" s="3">
+        <v>64254</v>
+      </c>
+      <c r="U151" s="3">
+        <v>64639</v>
+      </c>
+      <c r="V151" s="3">
+        <v>63701</v>
+      </c>
+      <c r="W151" s="3">
+        <v>61646</v>
+      </c>
+      <c r="X151" s="3">
+        <v>59133</v>
+      </c>
+      <c r="Y151" s="3">
+        <v>57432</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="2">
+        <v>20240530</v>
+      </c>
+      <c r="B152" s="3">
+        <v>53604</v>
+      </c>
+      <c r="C152" s="3">
+        <v>51581</v>
+      </c>
+      <c r="D152" s="3">
+        <v>50508</v>
+      </c>
+      <c r="E152" s="3">
+        <v>49917</v>
+      </c>
+      <c r="F152" s="3">
+        <v>50034</v>
+      </c>
+      <c r="G152" s="3">
+        <v>50716</v>
+      </c>
+      <c r="H152" s="3">
+        <v>52492</v>
+      </c>
+      <c r="I152" s="3">
+        <v>54408</v>
+      </c>
+      <c r="J152" s="3">
+        <v>57880</v>
+      </c>
+      <c r="K152" s="3">
+        <v>58913</v>
+      </c>
+      <c r="L152" s="3">
+        <v>59112</v>
+      </c>
+      <c r="M152" s="3">
+        <v>58001</v>
+      </c>
+      <c r="N152" s="3">
+        <v>55478</v>
+      </c>
+      <c r="O152" s="3">
+        <v>58208</v>
+      </c>
+      <c r="P152" s="3">
+        <v>60062</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>61936</v>
+      </c>
+      <c r="R152" s="3">
+        <v>64425</v>
+      </c>
+      <c r="S152" s="3">
+        <v>65191</v>
+      </c>
+      <c r="T152" s="3">
+        <v>65204</v>
+      </c>
+      <c r="U152" s="3">
+        <v>65284</v>
+      </c>
+      <c r="V152" s="3">
+        <v>64145</v>
+      </c>
+      <c r="W152" s="3">
+        <v>61841</v>
+      </c>
+      <c r="X152" s="3">
+        <v>59159</v>
+      </c>
+      <c r="Y152" s="3">
+        <v>57432</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="2">
+        <v>20240531</v>
+      </c>
+      <c r="B153" s="3">
+        <v>53744</v>
+      </c>
+      <c r="C153" s="3">
+        <v>51743</v>
+      </c>
+      <c r="D153" s="3">
+        <v>50629</v>
+      </c>
+      <c r="E153" s="3">
+        <v>50062</v>
+      </c>
+      <c r="F153" s="3">
+        <v>50145</v>
+      </c>
+      <c r="G153" s="3">
+        <v>50787</v>
+      </c>
+      <c r="H153" s="3">
+        <v>52488</v>
+      </c>
+      <c r="I153" s="3">
+        <v>54040</v>
+      </c>
+      <c r="J153" s="3">
+        <v>56599</v>
+      </c>
+      <c r="K153" s="3">
+        <v>56780</v>
+      </c>
+      <c r="L153" s="3">
+        <v>56582</v>
+      </c>
+      <c r="M153" s="3">
+        <v>55393</v>
+      </c>
+      <c r="N153" s="3">
+        <v>53218</v>
+      </c>
+      <c r="O153" s="3">
+        <v>56219</v>
+      </c>
+      <c r="P153" s="3">
+        <v>58319</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>60384</v>
+      </c>
+      <c r="R153" s="3">
+        <v>62916</v>
+      </c>
+      <c r="S153" s="3">
+        <v>63528</v>
+      </c>
+      <c r="T153" s="3">
+        <v>63425</v>
+      </c>
+      <c r="U153" s="3">
+        <v>63647</v>
+      </c>
+      <c r="V153" s="3">
+        <v>62947</v>
+      </c>
+      <c r="W153" s="3">
+        <v>60932</v>
+      </c>
+      <c r="X153" s="3">
+        <v>58446</v>
+      </c>
+      <c r="Y153" s="3">
+        <v>57050</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
+        <v>20240601</v>
+      </c>
+      <c r="B154" s="3">
+        <v>53036</v>
+      </c>
+      <c r="C154" s="3">
+        <v>51090</v>
+      </c>
+      <c r="D154" s="3">
+        <v>49830</v>
+      </c>
+      <c r="E154" s="3">
+        <v>48967</v>
+      </c>
+      <c r="F154" s="3">
+        <v>48818</v>
+      </c>
+      <c r="G154" s="3">
+        <v>48759</v>
+      </c>
+      <c r="H154" s="3">
+        <v>49156</v>
+      </c>
+      <c r="I154" s="3">
+        <v>48974</v>
+      </c>
+      <c r="J154" s="3">
+        <v>48727</v>
+      </c>
+      <c r="K154" s="3">
+        <v>48126</v>
+      </c>
+      <c r="L154" s="3">
+        <v>47475</v>
+      </c>
+      <c r="M154" s="3">
+        <v>46760</v>
+      </c>
+      <c r="N154" s="3">
+        <v>45976</v>
+      </c>
+      <c r="O154" s="3">
+        <v>47192</v>
+      </c>
+      <c r="P154" s="3">
+        <v>48156</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>49346</v>
+      </c>
+      <c r="R154" s="3">
+        <v>51132</v>
+      </c>
+      <c r="S154" s="3">
+        <v>52941</v>
+      </c>
+      <c r="T154" s="3">
+        <v>54931</v>
+      </c>
+      <c r="U154" s="3">
+        <v>56434</v>
+      </c>
+      <c r="V154" s="3">
+        <v>56431</v>
+      </c>
+      <c r="W154" s="3">
+        <v>55087</v>
+      </c>
+      <c r="X154" s="3">
+        <v>54297</v>
+      </c>
+      <c r="Y154" s="3">
+        <v>52574</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
+        <v>20240602</v>
+      </c>
+      <c r="B155" s="3">
+        <v>49195</v>
+      </c>
+      <c r="C155" s="3">
+        <v>47217</v>
+      </c>
+      <c r="D155" s="3">
+        <v>45866</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45197</v>
+      </c>
+      <c r="F155" s="3">
+        <v>45082</v>
+      </c>
+      <c r="G155" s="3">
+        <v>45129</v>
+      </c>
+      <c r="H155" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I155" s="3">
+        <v>43416</v>
+      </c>
+      <c r="J155" s="3">
+        <v>41851</v>
+      </c>
+      <c r="K155" s="3">
+        <v>41525</v>
+      </c>
+      <c r="L155" s="3">
+        <v>41926</v>
+      </c>
+      <c r="M155" s="3">
+        <v>42275</v>
+      </c>
+      <c r="N155" s="3">
+        <v>43621</v>
+      </c>
+      <c r="O155" s="3">
+        <v>45457</v>
+      </c>
+      <c r="P155" s="3">
+        <v>47006</v>
+      </c>
+      <c r="Q155" s="3">
+        <v>48745</v>
+      </c>
+      <c r="R155" s="3">
+        <v>50799</v>
+      </c>
+      <c r="S155" s="3">
+        <v>53244</v>
+      </c>
+      <c r="T155" s="3">
+        <v>55020</v>
+      </c>
+      <c r="U155" s="3">
+        <v>56105</v>
+      </c>
+      <c r="V155" s="3">
+        <v>56064</v>
+      </c>
+      <c r="W155" s="3">
+        <v>54459</v>
+      </c>
+      <c r="X155" s="3">
+        <v>52989</v>
+      </c>
+      <c r="Y155" s="3">
+        <v>51072</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
+        <v>20240603</v>
+      </c>
+      <c r="B156" s="3">
+        <v>47472</v>
+      </c>
+      <c r="C156" s="3">
+        <v>45710</v>
+      </c>
+      <c r="D156" s="3">
+        <v>44992</v>
+      </c>
+      <c r="E156" s="3">
+        <v>44552</v>
+      </c>
+      <c r="F156" s="3">
+        <v>44844</v>
+      </c>
+      <c r="G156" s="3">
+        <v>46014</v>
+      </c>
+      <c r="H156" s="3">
+        <v>48376</v>
+      </c>
+      <c r="I156" s="3">
+        <v>50975</v>
+      </c>
+      <c r="J156" s="3">
+        <v>54620</v>
+      </c>
+      <c r="K156" s="3">
+        <v>55230</v>
+      </c>
+      <c r="L156" s="3">
+        <v>54947</v>
+      </c>
+      <c r="M156" s="3">
+        <v>53847</v>
+      </c>
+      <c r="N156" s="3">
+        <v>51885</v>
+      </c>
+      <c r="O156" s="3">
+        <v>55210</v>
+      </c>
+      <c r="P156" s="3">
+        <v>57535</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>59678</v>
+      </c>
+      <c r="R156" s="3">
+        <v>62362</v>
+      </c>
+      <c r="S156" s="3">
+        <v>63347</v>
+      </c>
+      <c r="T156" s="3">
+        <v>63531</v>
+      </c>
+      <c r="U156" s="3">
+        <v>63416</v>
+      </c>
+      <c r="V156" s="3">
+        <v>62603</v>
+      </c>
+      <c r="W156" s="3">
+        <v>60516</v>
+      </c>
+      <c r="X156" s="3">
+        <v>57731</v>
+      </c>
+      <c r="Y156" s="3">
+        <v>56103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
+        <v>20240604</v>
+      </c>
+      <c r="B157" s="3">
+        <v>53323</v>
+      </c>
+      <c r="C157" s="3">
+        <v>51427</v>
+      </c>
+      <c r="D157" s="3">
+        <v>50389</v>
+      </c>
+      <c r="E157" s="3">
+        <v>49874</v>
+      </c>
+      <c r="F157" s="3">
+        <v>50010</v>
+      </c>
+      <c r="G157" s="3">
+        <v>50778</v>
+      </c>
+      <c r="H157" s="3">
+        <v>52513</v>
+      </c>
+      <c r="I157" s="3">
+        <v>54044</v>
+      </c>
+      <c r="J157" s="3">
+        <v>56837</v>
+      </c>
+      <c r="K157" s="3">
+        <v>57364</v>
+      </c>
+      <c r="L157" s="3">
+        <v>57246</v>
+      </c>
+      <c r="M157" s="3">
+        <v>56235</v>
+      </c>
+      <c r="N157" s="3">
+        <v>53943</v>
+      </c>
+      <c r="O157" s="3">
+        <v>57141</v>
+      </c>
+      <c r="P157" s="3">
+        <v>59245</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>61324</v>
+      </c>
+      <c r="R157" s="3">
+        <v>64089</v>
+      </c>
+      <c r="S157" s="3">
+        <v>65200</v>
+      </c>
+      <c r="T157" s="3">
+        <v>65350</v>
+      </c>
+      <c r="U157" s="3">
+        <v>65588</v>
+      </c>
+      <c r="V157" s="3">
+        <v>64541</v>
+      </c>
+      <c r="W157" s="3">
+        <v>62244</v>
+      </c>
+      <c r="X157" s="3">
+        <v>59499</v>
+      </c>
+      <c r="Y157" s="3">
+        <v>57787</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="2">
+        <v>20240605</v>
+      </c>
+      <c r="B158" s="3">
+        <v>53408</v>
+      </c>
+      <c r="C158" s="3">
+        <v>51447</v>
+      </c>
+      <c r="D158" s="3">
+        <v>50384</v>
+      </c>
+      <c r="E158" s="3">
+        <v>49713</v>
+      </c>
+      <c r="F158" s="3">
+        <v>49756</v>
+      </c>
+      <c r="G158" s="3">
+        <v>50559</v>
+      </c>
+      <c r="H158" s="3">
+        <v>52544</v>
+      </c>
+      <c r="I158" s="3">
+        <v>54656</v>
+      </c>
+      <c r="J158" s="3">
+        <v>56893</v>
+      </c>
+      <c r="K158" s="3">
+        <v>57294</v>
+      </c>
+      <c r="L158" s="3">
+        <v>56150</v>
+      </c>
+      <c r="M158" s="3">
+        <v>54156</v>
+      </c>
+      <c r="N158" s="3">
+        <v>51538</v>
+      </c>
+      <c r="O158" s="3">
+        <v>54968</v>
+      </c>
+      <c r="P158" s="3">
+        <v>56994</v>
+      </c>
+      <c r="Q158" s="3">
+        <v>58776</v>
+      </c>
+      <c r="R158" s="3">
+        <v>61377</v>
+      </c>
+      <c r="S158" s="3">
+        <v>62741</v>
+      </c>
+      <c r="T158" s="3">
+        <v>63910</v>
+      </c>
+      <c r="U158" s="3">
+        <v>64165</v>
+      </c>
+      <c r="V158" s="3">
+        <v>62959</v>
+      </c>
+      <c r="W158" s="3">
+        <v>60916</v>
+      </c>
+      <c r="X158" s="3">
+        <v>59553</v>
+      </c>
+      <c r="Y158" s="3">
+        <v>57506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
+        <v>20240606</v>
+      </c>
+      <c r="B159" s="3">
+        <v>53934</v>
+      </c>
+      <c r="C159" s="3">
+        <v>51945</v>
+      </c>
+      <c r="D159" s="3">
+        <v>50713</v>
+      </c>
+      <c r="E159" s="3">
+        <v>49860</v>
+      </c>
+      <c r="F159" s="3">
+        <v>49767</v>
+      </c>
+      <c r="G159" s="3">
+        <v>49760</v>
+      </c>
+      <c r="H159" s="3">
+        <v>50331</v>
+      </c>
+      <c r="I159" s="3">
+        <v>50230</v>
+      </c>
+      <c r="J159" s="3">
+        <v>50499</v>
+      </c>
+      <c r="K159" s="3">
+        <v>50284</v>
+      </c>
+      <c r="L159" s="3">
+        <v>50264</v>
+      </c>
+      <c r="M159" s="3">
+        <v>49860</v>
+      </c>
+      <c r="N159" s="3">
+        <v>48225</v>
+      </c>
+      <c r="O159" s="3">
+        <v>50630</v>
+      </c>
+      <c r="P159" s="3">
+        <v>52942</v>
+      </c>
+      <c r="Q159" s="3">
+        <v>54572</v>
+      </c>
+      <c r="R159" s="3">
+        <v>57062</v>
+      </c>
+      <c r="S159" s="3">
+        <v>58681</v>
+      </c>
+      <c r="T159" s="3">
+        <v>60293</v>
+      </c>
+      <c r="U159" s="3">
+        <v>60941</v>
+      </c>
+      <c r="V159" s="3">
+        <v>60856</v>
+      </c>
+      <c r="W159" s="3">
+        <v>59238</v>
+      </c>
+      <c r="X159" s="3">
+        <v>57529</v>
+      </c>
+      <c r="Y159" s="3">
+        <v>55345</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="2">
+        <v>20240607</v>
+      </c>
+      <c r="B160" s="3">
+        <v>51913</v>
+      </c>
+      <c r="C160" s="3">
+        <v>50212</v>
+      </c>
+      <c r="D160" s="3">
+        <v>49463</v>
+      </c>
+      <c r="E160" s="3">
+        <v>48995</v>
+      </c>
+      <c r="F160" s="3">
+        <v>49292</v>
+      </c>
+      <c r="G160" s="3">
+        <v>50242</v>
+      </c>
+      <c r="H160" s="3">
+        <v>51955</v>
+      </c>
+      <c r="I160" s="3">
+        <v>54241</v>
+      </c>
+      <c r="J160" s="3">
+        <v>57194</v>
+      </c>
+      <c r="K160" s="3">
+        <v>57761</v>
+      </c>
+      <c r="L160" s="3">
+        <v>57381</v>
+      </c>
+      <c r="M160" s="3">
+        <v>56047</v>
+      </c>
+      <c r="N160" s="3">
+        <v>53950</v>
+      </c>
+      <c r="O160" s="3">
+        <v>56736</v>
+      </c>
+      <c r="P160" s="3">
+        <v>58647</v>
+      </c>
+      <c r="Q160" s="3">
+        <v>60154</v>
+      </c>
+      <c r="R160" s="3">
+        <v>62152</v>
+      </c>
+      <c r="S160" s="3">
+        <v>63080</v>
+      </c>
+      <c r="T160" s="3">
+        <v>63445</v>
+      </c>
+      <c r="U160" s="3">
+        <v>63902</v>
+      </c>
+      <c r="V160" s="3">
+        <v>62646</v>
+      </c>
+      <c r="W160" s="3">
+        <v>60649</v>
+      </c>
+      <c r="X160" s="3">
+        <v>59229</v>
+      </c>
+      <c r="Y160" s="3">
+        <v>57725</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="2">
+        <v>20240608</v>
+      </c>
+      <c r="B161" s="3">
+        <v>54369</v>
+      </c>
+      <c r="C161" s="3">
+        <v>52321</v>
+      </c>
+      <c r="D161" s="3">
+        <v>51050</v>
+      </c>
+      <c r="E161" s="3">
+        <v>50115</v>
+      </c>
+      <c r="F161" s="3">
+        <v>49967</v>
+      </c>
+      <c r="G161" s="3">
+        <v>49944</v>
+      </c>
+      <c r="H161" s="3">
+        <v>50927</v>
+      </c>
+      <c r="I161" s="3">
+        <v>51831</v>
+      </c>
+      <c r="J161" s="3">
+        <v>53268</v>
+      </c>
+      <c r="K161" s="3">
+        <v>54404</v>
+      </c>
+      <c r="L161" s="3">
+        <v>55096</v>
+      </c>
+      <c r="M161" s="3">
+        <v>54539</v>
+      </c>
+      <c r="N161" s="3">
+        <v>52785</v>
+      </c>
+      <c r="O161" s="3">
+        <v>53492</v>
+      </c>
+      <c r="P161" s="3">
+        <v>54429</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>55127</v>
+      </c>
+      <c r="R161" s="3">
+        <v>55706</v>
+      </c>
+      <c r="S161" s="3">
+        <v>56038</v>
+      </c>
+      <c r="T161" s="3">
+        <v>57068</v>
+      </c>
+      <c r="U161" s="3">
+        <v>57955</v>
+      </c>
+      <c r="V161" s="3">
+        <v>57972</v>
+      </c>
+      <c r="W161" s="3">
+        <v>56580</v>
+      </c>
+      <c r="X161" s="3">
+        <v>54891</v>
+      </c>
+      <c r="Y161" s="3">
+        <v>53329</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/전력수요예측.xlsx
+++ b/전력수요예측.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\전력거래\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388B1C3F-5FF2-4D81-A312-179DCBCC5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9928A96-681E-4C99-85F7-261E2F347609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAA77A6B-6363-40F8-8F3F-6F88E3E928FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CEB12CF-9AEE-4A69-8580-EA6B85FB24DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="전력수요예측" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>구분</t>
-  </si>
   <si>
     <t>1h</t>
   </si>
@@ -96,159 +109,19 @@
   <si>
     <t>24h</t>
   </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -264,6 +137,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -271,15 +151,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,297 +161,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,131 +190,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,58 +199,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1112,97 +541,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DFF2D8-9DF2-4BB1-BDDF-07E8C3DCA054}">
-  <dimension ref="A1:Y161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F056CC-21A0-45C4-AF38-54D38EB97759}">
+  <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection sqref="A1:Y161"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:Y163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>20240101</v>
       </c>
@@ -13522,8 +12947,363 @@
         <v>53329</v>
       </c>
     </row>
+    <row r="162" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
+        <v>20240609</v>
+      </c>
+      <c r="B162" s="3">
+        <v>50356</v>
+      </c>
+      <c r="C162" s="3">
+        <v>48246</v>
+      </c>
+      <c r="D162" s="3">
+        <v>46911</v>
+      </c>
+      <c r="E162" s="3">
+        <v>46124</v>
+      </c>
+      <c r="F162" s="3">
+        <v>45899</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45877</v>
+      </c>
+      <c r="H162" s="3">
+        <v>46207</v>
+      </c>
+      <c r="I162" s="3">
+        <v>46045</v>
+      </c>
+      <c r="J162" s="3">
+        <v>46461</v>
+      </c>
+      <c r="K162" s="3">
+        <v>46793</v>
+      </c>
+      <c r="L162" s="3">
+        <v>47510</v>
+      </c>
+      <c r="M162" s="3">
+        <v>47024</v>
+      </c>
+      <c r="N162" s="3">
+        <v>46732</v>
+      </c>
+      <c r="O162" s="3">
+        <v>47213</v>
+      </c>
+      <c r="P162" s="3">
+        <v>47665</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>48865</v>
+      </c>
+      <c r="R162" s="3">
+        <v>50983</v>
+      </c>
+      <c r="S162" s="3">
+        <v>53625</v>
+      </c>
+      <c r="T162" s="3">
+        <v>55793</v>
+      </c>
+      <c r="U162" s="3">
+        <v>57194</v>
+      </c>
+      <c r="V162" s="3">
+        <v>57662</v>
+      </c>
+      <c r="W162" s="3">
+        <v>56141</v>
+      </c>
+      <c r="X162" s="3">
+        <v>54042</v>
+      </c>
+      <c r="Y162" s="3">
+        <v>51983</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="2">
+        <v>20240610</v>
+      </c>
+      <c r="B163" s="3">
+        <v>48407</v>
+      </c>
+      <c r="C163" s="3">
+        <v>46795</v>
+      </c>
+      <c r="D163" s="3">
+        <v>45790</v>
+      </c>
+      <c r="E163" s="3">
+        <v>45337</v>
+      </c>
+      <c r="F163" s="3">
+        <v>45514</v>
+      </c>
+      <c r="G163" s="3">
+        <v>46842</v>
+      </c>
+      <c r="H163" s="3">
+        <v>49545</v>
+      </c>
+      <c r="I163" s="3">
+        <v>52666</v>
+      </c>
+      <c r="J163" s="3">
+        <v>56243</v>
+      </c>
+      <c r="K163" s="3">
+        <v>57725</v>
+      </c>
+      <c r="L163" s="3">
+        <v>57636</v>
+      </c>
+      <c r="M163" s="3">
+        <v>56291</v>
+      </c>
+      <c r="N163" s="3">
+        <v>54250</v>
+      </c>
+      <c r="O163" s="3">
+        <v>57676</v>
+      </c>
+      <c r="P163" s="3">
+        <v>59898</v>
+      </c>
+      <c r="Q163" s="3">
+        <v>61489</v>
+      </c>
+      <c r="R163" s="3">
+        <v>63826</v>
+      </c>
+      <c r="S163" s="3">
+        <v>65120</v>
+      </c>
+      <c r="T163" s="3">
+        <v>65861</v>
+      </c>
+      <c r="U163" s="3">
+        <v>66053</v>
+      </c>
+      <c r="V163" s="3">
+        <v>63898</v>
+      </c>
+      <c r="W163" s="3">
+        <v>61482</v>
+      </c>
+      <c r="X163" s="3">
+        <v>59826</v>
+      </c>
+      <c r="Y163" s="3">
+        <v>57488</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100A0F3BC7C9B4AEE42863F91B83008DC51" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="1324b9ca1684880ff030cff68db67197">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93a3bb7c-40dd-4d30-acf3-b23cb614a6aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a2ad1c8c18c1b0e644a58e969cca17b" ns3:_="">
+    <xsd:import namespace="93a3bb7c-40dd-4d30-acf3-b23cb614a6aa"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="93a3bb7c-40dd-4d30-acf3-b23cb614a6aa" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DF1EFE-DD3E-42FC-A9C2-6B40BE24DA06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93a3bb7c-40dd-4d30-acf3-b23cb614a6aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4EBC48-81EF-4E31-B568-1E67B451B34C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD236B8-622E-468A-9623-DF89022298B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="93a3bb7c-40dd-4d30-acf3-b23cb614a6aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>